--- a/biology/Médecine/Le_Procès_de_l'herboriste/Le_Procès_de_l'herboriste.xlsx
+++ b/biology/Médecine/Le_Procès_de_l'herboriste/Le_Procès_de_l'herboriste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Proc%C3%A8s_de_l%27herboriste</t>
+          <t>Le_Procès_de_l'herboriste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Procès de l'herboriste (Šarlatán, litt. « Charlatan ») est un film multinational réalisé par Agnieszka Holland, sorti en 2020.
 Il s'inspire de la vie du guérisseur tchèque Jan Mikolášek (cs) (1889-1973).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Proc%C3%A8s_de_l%27herboriste</t>
+          <t>Le_Procès_de_l'herboriste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de jardiniers, J. Mikolášek se découvre un don en guérissant la jambe de sa sœur à laquelle il évite l'amputation. Il demande alors à une vieille guérisseuse de lui apprendre son métier. Celle-ci le teste en lui demandant ce qu'il pense d'un patient présent, à quoi il répond qu'il mourra le mardi suivant. Elle le chasse sans ménagement, mais vient le rechercher lorsque cette annonce s'avère. Elle lui apprend comment diagnostiquer, sur la seule base de l'examen des urines, et comment soigner par des infusions composées de différentes herbes. Sa connaissance des plantes lui permet d'ailleurs d'obtenir un diplôme d'herboriste en 1936. Ses remèdes et prescriptions, à base de plantes, mais aussi de changements de style de vie et de régime, lui permettent de guérir d'innombrables patients qui se présentent en files interminables devant sa maison. Durant la guerre, la Gestapo l'arrête mais, constatant la justesse de ses analyses, lui demande de soigner Martin Bormann, ministre d'Hitler. Il rencontre, après le Second Conflit mondial, le dirigeant communiste Antonín Zápotocký, qui a été interné en camp de concentration. Or celui-ci devient président de la république lorsque la Tchécoslovaquie passe dans l'orbite soviétique, il soutient alors totalement J. Mikolášek. Après la mort d'A. Zápotocký, il est en revanche menacé par le régime, qui le considère comme un charlatan. Il est arrêté en compagnie de son secrétaire et amant, František Palko, et accusé d'avoir empoisonné à la strychnine deux cadres communistes locaux par le remède qu'il leur a fourni, et qui en sont morts. Il est passible de la peine de mort. Son avocat lui apprend que l'identité des deux victimes supposées est fausse, mais ne peut le révéler et il faudrait une enquête, ce qui le mettrait lui-même en grave danger. Lors du procès, J. Mikolášek dit n'avoir jamais eu accès au grenier où étaient préparés les remèdes, travaillant en toute confiance. F. Palko, muet jusque-là, s'accuse d'avoir seul procédé à l'« empoisonnement ».
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Proc%C3%A8s_de_l%27herboriste</t>
+          <t>Le_Procès_de_l'herboriste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et slovaque : Šarlatán
@@ -565,7 +581,7 @@
 Format : couleur - 1,85:1
 Genre : biographie, drame, historique
 Durée : 118 minutes
-Dates de sortie[1] :
+Dates de sortie :
 Allemagne : 27 février 2020 (Berlinale - sélection Berlinale special)
 Tchéquie, Slovaquie : 20 août 2020
 Pologne : 9 octobre 2020
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Proc%C3%A8s_de_l%27herboriste</t>
+          <t>Le_Procès_de_l'herboriste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ivan Trojan : Jan Mikolášek, âgé
@@ -623,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Proc%C3%A8s_de_l%27herboriste</t>
+          <t>Le_Procès_de_l'herboriste</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,10 +659,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film s'éloigne parfois amplement de la réalité. Jan Mikolášek a, par exemple, bien été jugé et condamné en 1959, mais pour des délits fiscaux et autres : le procès pour empoisonnement à la strychnine est de pure fiction[2]. Il est libéré en 1963, et mort en 1973.
-Le tournage commence le 1er avril 2019, en prison de Mladá Boleslav (Věznice Mladá Boleslav), dans la région de la Bohême-Centrale[3],[4] pour une durée de 36 jours[5]. Il s'achève en juillet 2019[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film s'éloigne parfois amplement de la réalité. Jan Mikolášek a, par exemple, bien été jugé et condamné en 1959, mais pour des délits fiscaux et autres : le procès pour empoisonnement à la strychnine est de pure fiction. Il est libéré en 1963, et mort en 1973.
+Le tournage commence le 1er avril 2019, en prison de Mladá Boleslav (Věznice Mladá Boleslav), dans la région de la Bohême-Centrale, pour une durée de 36 jours. Il s'achève en juillet 2019.
 </t>
         </is>
       </c>
@@ -655,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Proc%C3%A8s_de_l%27herboriste</t>
+          <t>Le_Procès_de_l'herboriste</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,8 +695,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-En France, le site Allociné recense une moyenne des critiques presse de 2.9⁄5[7].
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné recense une moyenne des critiques presse de 2.9⁄5.
 </t>
         </is>
       </c>
@@ -687,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Le_Proc%C3%A8s_de_l%27herboriste</t>
+          <t>Le_Procès_de_l'herboriste</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,8 +732,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sélection
-Berlinale 2020 : sélection Berlinale special[8]</t>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Berlinale 2020 : sélection Berlinale special</t>
         </is>
       </c>
     </row>
